--- a/Data/Drug Dilution Tables/240820_DDT_EC50.xlsx
+++ b/Data/Drug Dilution Tables/240820_DDT_EC50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Drug Dilution Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3354DF0-E53C-FE49-8240-00182CF6FC20}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0BE9B22-0F1A-3341-A457-EC67A37283C9}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="-1700" windowWidth="29400" windowHeight="16860" activeTab="4" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
+    <workbookView xWindow="12360" yWindow="740" windowWidth="29400" windowHeight="17580" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30211B3-F241-4E45-997A-6E71BA0CA3E4}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="B1:B4 F1:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -914,6 +914,7 @@
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1033,7 +1034,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1682,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E6C79-1C15-6345-9F5B-29C16A03583C}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C75" sqref="C75:C84"/>
     </sheetView>
   </sheetViews>
@@ -2767,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F5C127-2ACD-2B40-AC5B-39C4318BCCE0}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>

--- a/Data/Drug Dilution Tables/240820_DDT_EC50.xlsx
+++ b/Data/Drug Dilution Tables/240820_DDT_EC50.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="443" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0BE9B22-0F1A-3341-A457-EC67A37283C9}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="740" windowWidth="29400" windowHeight="17580" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17540" activeTab="4" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30211B3-F241-4E45-997A-6E71BA0CA3E4}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E6C79-1C15-6345-9F5B-29C16A03583C}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C84"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C97" sqref="A1:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2768,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F5C127-2ACD-2B40-AC5B-39C4318BCCE0}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
